--- a/resources/data-imports/Skills/skills.xlsx
+++ b/resources/data-imports/Skills/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Have fear child, it's what keeps you alive to continue your research and studies.</t>
+  </si>
+  <si>
+    <t>Prisoners Escape</t>
+  </si>
+  <si>
+    <t>Escape the pits of torment and the delusions that haunt your mind from the time you spent in captivity. Escape with the fury and rage of a thousand men.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D19" sqref="D19"/>
@@ -1840,6 +1846,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <v>999</v>
+      </c>
+      <c r="F33">
+        <v>0.00175</v>
+      </c>
+      <c r="H33">
+        <v>0.0005</v>
+      </c>
+      <c r="I33">
+        <v>0.0005</v>
+      </c>
+      <c r="J33">
+        <v>0.0005</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0.001</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
